--- a/Overall_Efficiency.xlsx
+++ b/Overall_Efficiency.xlsx
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>69.69848528150901</v>
+        <v>72.88161843943651</v>
       </c>
     </row>
     <row r="6" spans="1:3">

--- a/Overall_Efficiency.xlsx
+++ b/Overall_Efficiency.xlsx
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>72.88161843943651</v>
+        <v>73.29171822213428</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>69.98048034528347</v>
       </c>
     </row>
     <row r="7" spans="1:3">
